--- a/Test data/pSHG stack parameters/Test data_pSHG stack parameters.xlsx
+++ b/Test data/pSHG stack parameters/Test data_pSHG stack parameters.xlsx
@@ -412,28 +412,28 @@
         <v>12368817126</v>
       </c>
       <c r="D3">
-        <v>0.2740541131285079</v>
+        <v>0.2797780448940629</v>
       </c>
       <c r="E3">
-        <v>0.07184804893597706</v>
+        <v>0.07080964971959224</v>
       </c>
       <c r="F3">
-        <v>0.08597822511333071</v>
+        <v>0.08479867880076918</v>
       </c>
       <c r="G3">
-        <v>0.04179290510874769</v>
+        <v>0.04044247578824058</v>
       </c>
       <c r="H3">
-        <v>-0.01731020702491433</v>
+        <v>-0.01408804122564487</v>
       </c>
       <c r="I3">
-        <v>0.04825702959162595</v>
+        <v>0.04586869137153026</v>
       </c>
       <c r="J3">
-        <v>-0.06820182517188843</v>
+        <v>-0.06898672552254091</v>
       </c>
       <c r="K3">
-        <v>0.04311645836612823</v>
+        <v>0.04200990028795456</v>
       </c>
     </row>
   </sheetData>
